--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Jamming_test(Finished)/Consecutive/Final/500nodes/500.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Jamming_test(Finished)/Consecutive/Final/500nodes/500.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Jamming_test(SWIB)\Consecutive\Final\500nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Jamming_test(Finished)\Consecutive\Final\500nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0E66A1-FE55-4349-94CD-5A23A3F37B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D6F50C-759F-49DF-A189-FC63591494A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadaata" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="综合图" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1556,13 +1556,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
+    <sheetView topLeftCell="F34" workbookViewId="0">
       <selection activeCell="V50" sqref="V50:V59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>14430</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>11349</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>12366</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>9708</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>8469</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>8566</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>10316</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>8521</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>10184</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>10265</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>10417.4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>11448</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>13688</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>9320</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>11365</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>9582</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>9368</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>9253</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>10355</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>11259</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>10400.799999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>9844</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>13446</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>12524</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>8413</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>8342</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>11591</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>9793</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>13345</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>9972</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>11153</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>10842.3</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>9077</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>11244</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>11156</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>9827</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>8091</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>9521</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>11048</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>9628</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>7824</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>11584</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>12065</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>8073</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>9733</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>11098</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>10417.4</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>10400.799999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>10842.3</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>11041</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>10394.1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>10835.9</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>10487.7</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>10122.200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>9289.6</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>10083</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>12268</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>9642</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>11007</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>9741</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>8084</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>9595</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>10394.1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>10009</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>8921</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>9399</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>15358</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>8270</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>8122</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>12301</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>8819</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>15038</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>12122</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>10835.9</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>11094</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>8298</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>9656</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>10219</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>13479</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>14859</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>7599</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>7674</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>10616</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>10487.7</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>9506</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>9008</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>8646</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>11787</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>11536</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>11878</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>9925</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>11479</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>8989</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>8468</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>10122.200000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>12912</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>8707</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>8348</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>9393</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>8441</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>7243</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>9844</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>10621</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>7736</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>9651</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="T111" s="2">
         <f>AVERAGE(T101:T110)</f>
         <v>9289.6</v>
@@ -7794,16 +7794,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F6DE49-96FF-4069-A801-1274FC519D0B}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.1</v>
       </c>
@@ -7831,22 +7831,22 @@
         <v>10417.4</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*50/1000000</f>
-        <v>0.52087000000000006</v>
+        <f>B2*2*50/1000000</f>
+        <v>1.0417400000000001</v>
       </c>
       <c r="D2" s="1">
         <f>E2/C2</f>
-        <v>3929.9633305815269</v>
+        <v>1964.9816652907634</v>
       </c>
       <c r="E2">
         <v>2047</v>
       </c>
       <c r="G2">
         <f>FLOOR(D2,1)</f>
-        <v>3929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.2</v>
       </c>
@@ -7854,22 +7854,22 @@
         <v>10400.799999999999</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>0.52003999999999995</v>
+        <f t="shared" ref="C3:C11" si="0">B3*2*50/1000000</f>
+        <v>1.0400799999999999</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="1">E3/C3</f>
-        <v>3936.2356741789099</v>
+        <v>1968.117837089455</v>
       </c>
       <c r="E3">
         <v>2047</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="2">FLOOR(D3,1)</f>
-        <v>3936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -7878,21 +7878,21 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.54211500000000001</v>
+        <v>1.08423</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>3775.9515969858794</v>
+        <v>1887.9757984929397</v>
       </c>
       <c r="E4">
         <v>2047</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>3775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.4</v>
       </c>
@@ -7901,21 +7901,21 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.495</v>
+        <v>0.99</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>4135.3535353535353</v>
+        <v>2067.6767676767677</v>
       </c>
       <c r="E5">
         <v>2047</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>4135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.5</v>
       </c>
@@ -7924,21 +7924,21 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.55205000000000004</v>
+        <v>1.1041000000000001</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>3707.9974639978259</v>
+        <v>1853.9987319989129</v>
       </c>
       <c r="E6">
         <v>2047</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>3707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.6</v>
       </c>
@@ -7947,21 +7947,21 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.51970499999999997</v>
+        <v>1.0394099999999999</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>3938.7729577356386</v>
+        <v>1969.3864788678193</v>
       </c>
       <c r="E7">
         <v>2047</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>3938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.7</v>
       </c>
@@ -7970,21 +7970,21 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.54179500000000003</v>
+        <v>1.0835900000000001</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>3778.1817846233353</v>
+        <v>1889.0908923116676</v>
       </c>
       <c r="E8">
         <v>2047</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>3778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.8</v>
       </c>
@@ -7993,21 +7993,21 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.52438499999999999</v>
+        <v>1.04877</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>3903.6204315531527</v>
+        <v>1951.8102157765763</v>
       </c>
       <c r="E9">
         <v>2047</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>3903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.9</v>
       </c>
@@ -8016,21 +8016,21 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.50611000000000006</v>
+        <v>1.0122200000000001</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>4044.5752899567283</v>
+        <v>2022.2876449783641</v>
       </c>
       <c r="E10">
         <v>2047</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -8039,18 +8039,18 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.46448</v>
+        <v>0.92896000000000001</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>4407.0788839131928</v>
+        <v>2203.5394419565964</v>
       </c>
       <c r="E11">
         <v>2047</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>4407</v>
+        <v>2203</v>
       </c>
     </row>
   </sheetData>
@@ -8067,14 +8067,14 @@
       <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.05</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>5029</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>6397</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.15</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>7349</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>7441</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>7888</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.3</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>7989</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.35</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>8163</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.4</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>8277</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.45</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>8354</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.5</v>
       </c>
